--- a/91其他工作/41晋商贷/01总表.xlsx
+++ b/91其他工作/41晋商贷/01总表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,29 +72,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20180825：215943</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聚宝盆180823001</t>
   </si>
   <si>
-    <t>20180824：220604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20180710:084324</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>聚宝盆180709003</t>
+  </si>
+  <si>
+    <t>20180709:234759</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金如意180707002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180709:234259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180709004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180709:233833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金如意180707004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180709:233323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金如意180707001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180505:234233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180505003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180505:233500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180504014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180505:233415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180504018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180503007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180503008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180503:152155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180503:152241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180503:152103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180310:000815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180307001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180303:133443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180228006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180303:133416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180302:175645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180302:150138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180228002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180228003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180824:220604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180825:215943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180226:210311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180224002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180221:001340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180220004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180209:235505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆180209005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170208:144352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆170206001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,8 +294,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -475,24 +623,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -500,31 +649,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1809141</v>
       </c>
@@ -532,202 +684,555 @@
         <v>12</v>
       </c>
       <c r="C2">
+        <v>20190914</v>
+      </c>
+      <c r="D2">
         <v>58700</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
       <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
         <v>10566</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>880.5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1808251</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>20181014</v>
+      </c>
+      <c r="D3">
+        <v>30000</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1808241</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C4">
+        <v>20181013</v>
+      </c>
+      <c r="D4">
         <v>30000</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1807101</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
+        <v>20200110</v>
+      </c>
+      <c r="D5">
         <v>30000</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
         <v>24</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1807091</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6">
+        <v>20181009</v>
+      </c>
+      <c r="D6">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1807092</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7">
+        <v>20200109</v>
+      </c>
+      <c r="D7">
         <v>50000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1807093</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8">
+        <v>20190109</v>
+      </c>
+      <c r="D8">
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1807094</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9">
+        <v>20181009</v>
+      </c>
+      <c r="D9">
         <v>50000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1805051</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10">
+        <v>20190505</v>
+      </c>
+      <c r="D10">
         <v>30000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1805052</v>
       </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
       <c r="C11">
+        <v>20190505</v>
+      </c>
+      <c r="D11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1805053</v>
       </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
       <c r="C12">
+        <v>20190505</v>
+      </c>
+      <c r="D12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1805031</v>
       </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
       <c r="C13">
+        <v>20190503</v>
+      </c>
+      <c r="D13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1805032</v>
       </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
       <c r="C14">
+        <v>20190503</v>
+      </c>
+      <c r="D14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1805033</v>
       </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
       <c r="C15">
+        <v>20190503</v>
+      </c>
+      <c r="D15">
         <v>20000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
-        <v>1804101</v>
+        <v>1803101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
       <c r="C16">
+        <v>20181110</v>
+      </c>
+      <c r="D16">
+        <v>50000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1803031</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>20181103</v>
+      </c>
+      <c r="D17">
+        <v>40000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1803032</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>20181103</v>
+      </c>
+      <c r="D18">
+        <v>50000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1803021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>20181102</v>
+      </c>
+      <c r="D19">
+        <v>50000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1803022</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>20181102</v>
+      </c>
+      <c r="D20">
+        <v>20000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1802261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>20181026</v>
+      </c>
+      <c r="D21">
         <v>30000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>1804181</v>
-      </c>
-      <c r="C17">
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1802211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>20181021</v>
+      </c>
+      <c r="D22">
         <v>20000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>1802091</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
       <c r="C23">
-        <f>SUM(C2:C20)</f>
-        <v>488700</v>
+        <v>20181009</v>
+      </c>
+      <c r="D23">
+        <v>50000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>1702081</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>20200208</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27">
+        <f>SUM(D2:D26)</f>
+        <v>758700</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/91其他工作/41晋商贷/01总表.xlsx
+++ b/91其他工作/41晋商贷/01总表.xlsx
@@ -626,13 +626,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
@@ -1185,7 +1185,7 @@
         <v>20181009</v>
       </c>
       <c r="D23">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="E23" t="s">
         <v>52</v>
@@ -1223,7 +1223,7 @@
     <row r="27" spans="1:7">
       <c r="D27">
         <f>SUM(D2:D26)</f>
-        <v>758700</v>
+        <v>748700</v>
       </c>
     </row>
   </sheetData>
